--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,46 @@
   </si>
   <si>
     <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日员工餐</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,12 +872,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -882,6 +925,27 @@
         <v>231748</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>180902</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>180901</v>
+      </c>
+      <c r="F3">
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <f>G2-F3</f>
+        <v>231642</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>25</v>
@@ -893,11 +957,11 @@
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <f>E12-F12</f>
-        <v>0</v>
+        <v>-106</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,6 +976,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -919,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,37 @@
         <charset val="134"/>
       </rPr>
       <t>日员工餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180901</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,7 +905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -942,8 +973,29 @@
         <v>106</v>
       </c>
       <c r="G3">
-        <f>G2-F3</f>
+        <f>G2-F3+E3</f>
         <v>231642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>180904</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <f>G3-F4+E4</f>
+        <v>331642</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -953,7 +1005,7 @@
       <c r="C12" s="1"/>
       <c r="E12">
         <f>SUM(E3:E10)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
@@ -961,7 +1013,7 @@
       </c>
       <c r="G12">
         <f>E12-F12</f>
-        <v>-106</v>
+        <v>99894</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -969,8 +1021,8 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <f>G10</f>
-        <v>0</v>
+        <f>G12+G2</f>
+        <v>331642</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,37 @@
         <charset val="134"/>
       </rPr>
       <t>180901</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180902</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,7 +936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -998,6 +1029,27 @@
         <v>331642</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>180904</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="G5">
+        <f>G4-F5+E5</f>
+        <v>381642</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>25</v>
@@ -1005,7 +1057,7 @@
       <c r="C12" s="1"/>
       <c r="E12">
         <f>SUM(E3:E10)</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
@@ -1013,7 +1065,7 @@
       </c>
       <c r="G12">
         <f>E12-F12</f>
-        <v>99894</v>
+        <v>149894</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1022,7 +1074,7 @@
       </c>
       <c r="G13">
         <f>G12+G2</f>
-        <v>331642</v>
+        <v>381642</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,37 @@
         <charset val="134"/>
       </rPr>
       <t>180902</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180903</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,7 +967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1050,6 +1081,27 @@
         <v>381642</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>180905</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <f>G5-F6+E6</f>
+        <v>481642</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>25</v>
@@ -1057,7 +1109,7 @@
       <c r="C12" s="1"/>
       <c r="E12">
         <f>SUM(E3:E10)</f>
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
@@ -1065,7 +1117,7 @@
       </c>
       <c r="G12">
         <f>E12-F12</f>
-        <v>149894</v>
+        <v>249894</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1074,7 +1126,7 @@
       </c>
       <c r="G13">
         <f>G12+G2</f>
-        <v>381642</v>
+        <v>481642</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有借款，后冲账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>史哲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +353,41 @@
       </rPr>
       <t>180903</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180904</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款，未完成房租定金支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,16 +736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -737,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -861,7 +892,7 @@
         <v>182000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -890,10 +921,10 @@
         <v>20180831</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>180802</v>
@@ -911,10 +942,10 @@
         <v>20180831</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D10">
         <v>180803</v>
@@ -929,7 +960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12">
@@ -947,7 +978,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <f>G10</f>
@@ -965,9 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -995,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1023,10 +1054,10 @@
         <v>180902</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>180901</v>
@@ -1044,13 +1075,13 @@
         <v>180904</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
       <c r="E4">
         <v>100000</v>
@@ -1065,13 +1096,13 @@
         <v>180904</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
       <c r="E5">
         <v>50000</v>
@@ -1086,13 +1117,13 @@
         <v>180905</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
       </c>
       <c r="E6">
         <v>100000</v>
@@ -1102,14 +1133,35 @@
         <v>481642</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>180608</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>50000</v>
+      </c>
+      <c r="G7">
+        <f>G6-F7+E7</f>
+        <v>531642</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12">
         <f>SUM(E3:E10)</f>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
@@ -1117,16 +1169,16 @@
       </c>
       <c r="G12">
         <f>E12-F12</f>
-        <v>249894</v>
+        <v>299894</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <f>G12+G2</f>
-        <v>481642</v>
+        <v>531642</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1188,7 +1240,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12">
@@ -1206,7 +1258,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <f>G10</f>
@@ -1249,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1305,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="21440" windowHeight="13180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,14 +393,29 @@
   </si>
   <si>
     <t>借款，未完成房租定金支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +436,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,15 +470,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,22 +775,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,14 +810,14 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,11 +826,11 @@
         <v>8</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -803,12 +846,12 @@
       <c r="E3">
         <v>50000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f>G2+E3-F3</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -824,12 +867,12 @@
       <c r="E4">
         <v>50000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G10" si="0">G3+E4-F4</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -845,12 +888,12 @@
       <c r="E5">
         <v>50000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -866,12 +909,12 @@
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -887,7 +930,7 @@
       <c r="F7">
         <v>18000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>182000</v>
       </c>
@@ -895,7 +938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -911,12 +954,12 @@
       <c r="E8">
         <v>50000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -932,12 +975,12 @@
       <c r="F9">
         <v>158</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -953,12 +996,12 @@
       <c r="F10">
         <v>94</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -971,16 +1014,16 @@
         <f>SUM(F3:F10)</f>
         <v>18252</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <f>E12-F12</f>
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <f>G10</f>
         <v>231748</v>
       </c>
@@ -988,25 +1031,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,14 +1074,14 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,11 +1094,11 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1065,12 +1114,12 @@
       <c r="F3">
         <v>106</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f>G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1086,12 +1135,12 @@
       <c r="E4">
         <v>100000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f>G3-F4+E4</f>
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1107,12 +1156,12 @@
       <c r="E5">
         <v>50000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f>G4-F5+E5</f>
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1128,14 +1177,14 @@
       <c r="E6">
         <v>100000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f>G5-F6+E6</f>
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
-        <v>180608</v>
+        <v>180908</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
@@ -1149,56 +1198,82 @@
       <c r="E7">
         <v>50000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f>G6-F7+E7</f>
         <v>531642</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8">
+        <v>180921</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>127.12</v>
+      </c>
+      <c r="G8" s="3">
+        <f>G7-F8+E8</f>
+        <v>531769.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12">
         <f>SUM(E3:E10)</f>
-        <v>300000</v>
+        <v>300127.12</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F10)</f>
         <v>106</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <f>E12-F12</f>
-        <v>299894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>300021.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <f>G12+G2</f>
-        <v>531642</v>
+        <v>531769.12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1268,20 +1343,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1324,20 +1404,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1380,5 +1465,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="21440" windowHeight="13180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>借款，未完成房租定金支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,17 +401,95 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租及押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千鹤家园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2-705
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>租金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17500X6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月，押金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款，未完成房租定金中介费
+剩余500元购电和杂项
+9月23日支付2-705佣金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,16 +549,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,23 +855,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -830,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -851,7 +931,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -872,7 +952,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -893,7 +973,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -914,7 +994,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="41.25">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -934,11 +1014,11 @@
         <f t="shared" si="0"/>
         <v>182000</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -959,7 +1039,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -980,7 +1060,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1001,7 +1081,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1099,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1041,21 +1121,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1179,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1115,11 +1196,11 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f>G2-F3+E3</f>
+        <f t="shared" ref="G3:G9" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1136,11 +1217,11 @@
         <v>100000</v>
       </c>
       <c r="G4" s="3">
-        <f>G3-F4+E4</f>
+        <f t="shared" si="0"/>
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1157,11 +1238,11 @@
         <v>50000</v>
       </c>
       <c r="G5" s="3">
-        <f>G4-F5+E5</f>
+        <f t="shared" si="0"/>
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1178,11 +1259,11 @@
         <v>100000</v>
       </c>
       <c r="G6" s="3">
-        <f>G5-F6+E6</f>
+        <f t="shared" si="0"/>
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -1199,62 +1280,98 @@
         <v>50000</v>
       </c>
       <c r="G7" s="3">
-        <f>G6-F7+E7</f>
+        <f t="shared" si="0"/>
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>180921</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E8">
         <v>127.12</v>
       </c>
       <c r="G8" s="3">
-        <f>G7-F8+E8</f>
+        <f t="shared" si="0"/>
         <v>531769.12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="1" t="s">
+    <row r="9" spans="1:8" ht="42.75">
+      <c r="A9">
+        <v>180923</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>180902</v>
+      </c>
+      <c r="F9">
+        <v>122500</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>409269.12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12">
-        <f>SUM(E3:E10)</f>
+      <c r="C15" s="1"/>
+      <c r="E15">
+        <f>SUM(E3:E13)</f>
         <v>300127.12</v>
       </c>
-      <c r="F12">
-        <f>SUM(F3:F10)</f>
-        <v>106</v>
-      </c>
-      <c r="G12" s="3">
-        <f>E12-F12</f>
-        <v>300021.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="1" t="s">
+      <c r="F15">
+        <f>SUM(F3:F13)</f>
+        <v>122606</v>
+      </c>
+      <c r="G15" s="3">
+        <f>E15-F15</f>
+        <v>177521.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3">
-        <f>G12+G2</f>
-        <v>531769.12</v>
+      <c r="G16" s="3">
+        <f>G15+G2</f>
+        <v>409269.12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1264,16 +1381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,16 +1469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1413,16 +1530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25140" windowHeight="14800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,17 +479,29 @@
     <t>借款，未完成房租定金中介费
 剩余500元购电和杂项
 9月23日支付2-705佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁具和门禁卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修预付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +556,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -561,10 +579,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -855,23 +879,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -910,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -931,7 +955,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -952,7 +976,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -973,7 +997,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -994,7 +1018,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25">
+    <row r="7" spans="1:8" ht="42">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1018,7 +1042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1039,7 +1063,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1060,7 +1084,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1081,7 +1105,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1121,22 +1145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1203,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1196,11 +1220,11 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G9" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G11" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1263,7 +1287,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -1284,7 +1308,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>531769.12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9">
         <v>180923</v>
       </c>
@@ -1329,49 +1353,95 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10">
+        <v>180925</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>180903</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>408669.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11">
+        <v>180925</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>180904</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>407669.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:8" ht="15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15">
-        <f>SUM(E3:E13)</f>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <f>SUM(E3:E16)</f>
         <v>300127.12</v>
       </c>
-      <c r="F15">
-        <f>SUM(F3:F13)</f>
-        <v>122606</v>
-      </c>
-      <c r="G15" s="3">
-        <f>E15-F15</f>
-        <v>177521.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
+      <c r="F18">
+        <f>SUM(F3:F16)</f>
+        <v>124206</v>
+      </c>
+      <c r="G18" s="3">
+        <f>E18-F18</f>
+        <v>175921.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="3">
-        <f>G15+G2</f>
-        <v>409269.12</v>
+      <c r="G19" s="3">
+        <f>G18+G2</f>
+        <v>407669.12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1381,16 +1451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1469,16 +1539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1530,16 +1600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="25140" windowHeight="14800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,17 +491,222 @@
   </si>
   <si>
     <t>装修预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶灯和手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日午餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私聊酒水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工餐和空调打孔费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日晚餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44
+9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日空调打孔费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（现金支付）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日在红庙私聊茶馆开会</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,15 +785,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -887,15 +1092,15 @@
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -955,7 +1160,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -976,7 +1181,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -997,7 +1202,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -1018,7 +1223,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="41.25">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1042,7 +1247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1063,7 +1268,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1084,7 +1289,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1105,7 +1310,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1328,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1145,22 +1350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1390,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15">
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1411,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1220,11 +1428,11 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G11" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G15" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1245,7 +1453,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1266,7 +1474,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1287,7 +1495,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -1308,7 +1516,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -1329,7 +1537,7 @@
         <v>531769.12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9">
         <v>180923</v>
       </c>
@@ -1352,8 +1560,11 @@
       <c r="H9" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -1374,7 +1585,7 @@
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -1395,53 +1606,163 @@
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="1" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>180926</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>180905</v>
+      </c>
+      <c r="F12">
+        <v>4597.3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>403071.82</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>180925</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>180906</v>
+      </c>
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>402994.82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>180926</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>180907</v>
+      </c>
+      <c r="F14">
+        <v>160</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>402834.82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A15">
+        <v>180926</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>180908</v>
+      </c>
+      <c r="F15">
+        <v>164</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>402670.82</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <f>SUM(E3:E16)</f>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <f>SUM(E3:E23)</f>
         <v>300127.12</v>
       </c>
-      <c r="F18">
-        <f>SUM(F3:F16)</f>
-        <v>124206</v>
-      </c>
-      <c r="G18" s="3">
-        <f>E18-F18</f>
-        <v>175921.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="1" t="s">
+      <c r="F25">
+        <f>SUM(F3:F23)</f>
+        <v>129204.3</v>
+      </c>
+      <c r="G25" s="3">
+        <f>E25-F25</f>
+        <v>170922.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3">
-        <f>G18+G2</f>
-        <v>407669.12</v>
+      <c r="G26" s="3">
+        <f>G25+G2</f>
+        <v>402670.82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1451,16 +1772,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1518,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1539,16 +1860,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1600,16 +1921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,58 @@
         <charset val="134"/>
       </rPr>
       <t>日在红庙私聊茶馆开会</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁纸和壁纸胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壁纸胶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">62.27X15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壁纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35.71X59</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1353,9 +1405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1428,7 +1480,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G15" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G16" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
@@ -1702,10 +1754,32 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="H16" s="4"/>
+    <row r="16" spans="1:9" ht="28.5">
+      <c r="A16">
+        <v>180927</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>180909</v>
+      </c>
+      <c r="F16">
+        <v>4811</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>397859.82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="1"/>
@@ -1743,11 +1817,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>129204.3</v>
+        <v>134015.29999999999</v>
       </c>
       <c r="G25" s="3">
         <f>E25-F25</f>
-        <v>170922.82</v>
+        <v>166111.82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1756,7 +1830,7 @@
       </c>
       <c r="G26" s="3">
         <f>G25+G2</f>
-        <v>402670.82</v>
+        <v>397859.82</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +748,81 @@
       </rPr>
       <t>35.71X59</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧本、更衣柜和员工餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剧本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>650</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，更衣柜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，员工餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,8 +1481,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1480,7 +1555,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G16" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G17" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
@@ -1782,13 +1857,40 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="H17" s="4"/>
+      <c r="A17">
+        <v>180928</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>180910</v>
+      </c>
+      <c r="F17">
+        <v>1458</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>396401.82</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="1"/>
+      <c r="A18">
+        <v>180928</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="1"/>
+      <c r="D18">
+        <v>180911</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="1"/>
@@ -1817,11 +1919,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>134015.29999999999</v>
+        <v>135473.29999999999</v>
       </c>
       <c r="G25" s="3">
         <f>E25-F25</f>
-        <v>166111.82</v>
+        <v>164653.82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1830,7 +1932,7 @@
       </c>
       <c r="G26" s="3">
         <f>G25+G2</f>
-        <v>397859.82</v>
+        <v>396401.82</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +823,18 @@
   </si>
   <si>
     <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽带费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1555,7 +1567,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G17" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G20" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
@@ -1891,14 +1903,55 @@
       <c r="D18">
         <v>180911</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>396401.82</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19">
+        <v>180929</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>180912</v>
+      </c>
+      <c r="F19">
+        <v>1788</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>394613.82</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20">
+        <v>180929</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>180913</v>
+      </c>
+      <c r="F20">
+        <v>1372</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>393241.82</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="1"/>
@@ -1919,11 +1972,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>135473.29999999999</v>
+        <v>138633.29999999999</v>
       </c>
       <c r="G25" s="3">
         <f>E25-F25</f>
-        <v>164653.82</v>
+        <v>161493.82</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1932,7 +1985,7 @@
       </c>
       <c r="G26" s="3">
         <f>G25+G2</f>
-        <v>396401.82</v>
+        <v>393241.82</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,6 +835,107 @@
   </si>
   <si>
     <t>宽带费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信认证等四项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票不全，延缓报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，微信认证费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，孙中山画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，玩具手枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51.96
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，日本刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14.9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,9 +1593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1567,7 +1668,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G20" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G21" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
@@ -1910,6 +2011,9 @@
         <f t="shared" si="0"/>
         <v>396401.82</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
@@ -1953,9 +2057,29 @@
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:8" ht="57">
+      <c r="A21">
+        <v>180930</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>180914</v>
+      </c>
+      <c r="F21">
+        <v>390.86</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>392850.96</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="1"/>
@@ -1972,11 +2096,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>138633.29999999999</v>
+        <v>139024.15999999997</v>
       </c>
       <c r="G25" s="3">
         <f>E25-F25</f>
-        <v>161493.82</v>
+        <v>161102.96000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1985,7 +2109,7 @@
       </c>
       <c r="G26" s="3">
         <f>G25+G2</f>
-        <v>393241.82</v>
+        <v>392850.96</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,6 +935,103 @@
         <charset val="134"/>
       </rPr>
       <t>14.9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络设备和桌游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，无线路由器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>899
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，手机充电坞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28.9
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，插座扩展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>349
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，桌游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>252.2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1591,11 +1688,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1668,7 +1765,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G21" si="0">G2-F3+E3</f>
+        <f t="shared" ref="G3:G22" si="0">G2-F3+E3</f>
         <v>231642</v>
       </c>
     </row>
@@ -2081,35 +2178,67 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="1:8" ht="57">
+      <c r="A22">
+        <v>180930</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>180915</v>
+      </c>
+      <c r="F22">
+        <v>1529.1</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>391321.86000000004</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <f>SUM(E3:E23)</f>
+      <c r="C28" s="1"/>
+      <c r="E28">
+        <f>SUM(E3:E26)</f>
         <v>300127.12</v>
       </c>
-      <c r="F25">
-        <f>SUM(F3:F23)</f>
-        <v>139024.15999999997</v>
-      </c>
-      <c r="G25" s="3">
-        <f>E25-F25</f>
-        <v>161102.96000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="F28">
+        <f>SUM(F3:F26)</f>
+        <v>140553.25999999998</v>
+      </c>
+      <c r="G28" s="3">
+        <f>E28-F28</f>
+        <v>159573.86000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3">
-        <f>G25+G2</f>
-        <v>392850.96</v>
+      <c r="G29" s="3">
+        <f>G28+G2</f>
+        <v>391321.86</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -1040,7 +1040,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5">
@@ -1109,7 +1110,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1120,6 +1121,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1426,7 +1429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1690,15 +1693,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1745,6 +1748,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="3">
+        <f>'8月明细账'!G13</f>
         <v>231748</v>
       </c>
     </row>
@@ -2255,13 +2259,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -2282,7 +2289,7 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2302,37 +2309,42 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c r="G2" s="7">
+        <f>'9月明细账'!G29</f>
+        <v>391321.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12">
-        <f>SUM(E3:E10)</f>
+      <c r="C14" s="1"/>
+      <c r="E14">
+        <f>SUM(E3:E12)</f>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f>SUM(F3:F10)</f>
+      <c r="F14">
+        <f>SUM(F3:F12)</f>
         <v>0</v>
       </c>
-      <c r="G12">
-        <f>E12-F12</f>
+      <c r="G14" s="7">
+        <f>E14-F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13">
-        <f>G10</f>
-        <v>0</v>
+      <c r="G15" s="7">
+        <f>G12+G2</f>
+        <v>391321.86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,6 +1033,26 @@
       </rPr>
       <t>252.2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太熟悉家常菜请学生参与剧本测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,12 +2282,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2314,6 +2336,51 @@
         <v>391321.86</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>181003</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>181001</v>
+      </c>
+      <c r="F3">
+        <v>10580</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G2+E3-F3</f>
+        <v>380741.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>181003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>181002</v>
+      </c>
+      <c r="F4">
+        <v>508</v>
+      </c>
+      <c r="G4" s="7">
+        <f>G3+E4-F4</f>
+        <v>380233.86</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
@@ -2325,11 +2392,11 @@
       </c>
       <c r="F14">
         <f>SUM(F3:F12)</f>
-        <v>0</v>
+        <v>11088</v>
       </c>
       <c r="G14" s="7">
         <f>E14-F14</f>
-        <v>0</v>
+        <v>-11088</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2337,8 +2404,8 @@
         <v>25</v>
       </c>
       <c r="G15" s="7">
-        <f>G12+G2</f>
-        <v>391321.86</v>
+        <f>G14+G2</f>
+        <v>380233.86</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,18 +1053,42 @@
   </si>
   <si>
     <t>太熟悉家常菜请学生参与剧本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米电视及配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，电视2099，2支架159</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,8 +1143,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,27 +1159,29 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1444,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1452,15 +1480,15 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -1520,7 +1548,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -1562,7 +1590,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -1583,7 +1611,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25">
+    <row r="7" spans="1:8" ht="42">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1607,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1628,7 +1656,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1649,7 +1677,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1670,7 +1698,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1716,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1710,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1718,14 +1746,14 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1800,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1793,7 +1821,7 @@
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1814,7 +1842,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1835,7 +1863,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1856,7 +1884,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -1877,7 +1905,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -1925,7 +1953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -1946,7 +1974,7 @@
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12">
         <v>180926</v>
       </c>
@@ -1991,7 +2019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13">
         <v>180925</v>
       </c>
@@ -2015,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14">
         <v>180926</v>
       </c>
@@ -2063,7 +2091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.5">
+    <row r="16" spans="1:9" ht="30">
       <c r="A16">
         <v>180927</v>
       </c>
@@ -2090,7 +2118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17">
         <v>180928</v>
       </c>
@@ -2114,7 +2142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18">
         <v>180928</v>
       </c>
@@ -2136,7 +2164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19">
         <v>180929</v>
       </c>
@@ -2157,7 +2185,7 @@
         <v>394613.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20">
         <v>180929</v>
       </c>
@@ -2178,7 +2206,7 @@
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57">
+    <row r="21" spans="1:8" ht="60">
       <c r="A21">
         <v>180930</v>
       </c>
@@ -2202,7 +2230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57">
+    <row r="22" spans="1:8" ht="60">
       <c r="A22">
         <v>180930</v>
       </c>
@@ -2226,19 +2254,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2284,7 @@
         <v>159573.86000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2268,7 +2296,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2278,21 +2306,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2364,7 @@
         <v>391321.86</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>181003</v>
       </c>
@@ -2357,7 +2385,7 @@
         <v>380741.86</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>181003</v>
       </c>
@@ -2381,7 +2409,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5">
+        <v>181005</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>181003</v>
+      </c>
+      <c r="F5">
+        <v>2258</v>
+      </c>
+      <c r="G5" s="7">
+        <f>G4+E5-F5</f>
+        <v>377975.86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,26 +2444,26 @@
       </c>
       <c r="F14">
         <f>SUM(F3:F12)</f>
-        <v>11088</v>
+        <v>13346</v>
       </c>
       <c r="G14" s="7">
         <f>E14-F14</f>
-        <v>-11088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-13346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="7">
         <f>G14+G2</f>
-        <v>380233.86</v>
+        <v>377975.86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2421,16 +2473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2482,16 +2534,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,6 +1076,30 @@
         <charset val="134"/>
       </rPr>
       <t>，电视2099，2支架159</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邢颖 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁费，茶水费和买书壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，保洁费600，现金支，2茶水60，3，道具书335</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,8 +1167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1170,17 +1196,19 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2310,14 +2338,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
@@ -2433,6 +2461,30 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6">
+        <v>181005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>181004</v>
+      </c>
+      <c r="F6">
+        <v>995</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G5+E6-F6</f>
+        <v>376980.86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="1" t="s">
         <v>24</v>
@@ -2444,11 +2496,11 @@
       </c>
       <c r="F14">
         <f>SUM(F3:F12)</f>
-        <v>13346</v>
+        <v>14341</v>
       </c>
       <c r="G14" s="7">
         <f>E14-F14</f>
-        <v>-13346</v>
+        <v>-14341</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15">
@@ -2457,7 +2509,7 @@
       </c>
       <c r="G15" s="7">
         <f>G14+G2</f>
-        <v>377975.86</v>
+        <v>376980.86</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,6 +1100,160 @@
         <charset val="134"/>
       </rPr>
       <t>，保洁费600，现金支，2茶水60，3，道具书335</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日太熟悉家常菜餐费，请学生测试剧本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买家具等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，模特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，写字台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，沙发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2000</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,12 +1261,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,31 +1339,31 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1508,15 +1662,15 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -1576,7 +1730,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -1597,7 +1751,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -1618,7 +1772,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -1639,7 +1793,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="41.25">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1663,7 +1817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1684,7 +1838,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1705,7 +1859,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1726,7 +1880,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,7 +1898,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -1774,14 +1928,14 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1982,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -1849,7 +2003,7 @@
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -1870,7 +2024,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -1891,7 +2045,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -1912,7 +2066,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -1933,7 +2087,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -1981,7 +2135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -2002,7 +2156,7 @@
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -2023,7 +2177,7 @@
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>180926</v>
       </c>
@@ -2047,7 +2201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>180925</v>
       </c>
@@ -2071,7 +2225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>180926</v>
       </c>
@@ -2119,7 +2273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="28.5">
       <c r="A16">
         <v>180927</v>
       </c>
@@ -2146,7 +2300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>180928</v>
       </c>
@@ -2170,7 +2324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>180928</v>
       </c>
@@ -2192,7 +2346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>180929</v>
       </c>
@@ -2213,7 +2367,7 @@
         <v>394613.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>180929</v>
       </c>
@@ -2234,7 +2388,7 @@
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60">
+    <row r="21" spans="1:8" ht="57">
       <c r="A21">
         <v>180930</v>
       </c>
@@ -2258,7 +2412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60">
+    <row r="22" spans="1:8" ht="57">
       <c r="A22">
         <v>180930</v>
       </c>
@@ -2282,19 +2436,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2312,7 +2466,7 @@
         <v>159573.86000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2334,21 +2488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2392,7 +2546,7 @@
         <v>391321.86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>181003</v>
       </c>
@@ -2413,7 +2567,7 @@
         <v>380741.86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>181003</v>
       </c>
@@ -2437,7 +2591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>181005</v>
       </c>
@@ -2461,7 +2615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>181005</v>
       </c>
@@ -2485,7 +2639,55 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>181006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>181005</v>
+      </c>
+      <c r="F7">
+        <v>884</v>
+      </c>
+      <c r="G7" s="7">
+        <f>G6+E7-F7</f>
+        <v>376096.86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>181006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>181006</v>
+      </c>
+      <c r="F8">
+        <v>2264</v>
+      </c>
+      <c r="G8" s="7">
+        <f>G7+E8-F8</f>
+        <v>373832.86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,26 +2698,26 @@
       </c>
       <c r="F14">
         <f>SUM(F3:F12)</f>
-        <v>14341</v>
+        <v>17489</v>
       </c>
       <c r="G14" s="7">
         <f>E14-F14</f>
-        <v>-14341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15">
+        <v>-17489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="7">
         <f>G14+G2</f>
-        <v>376980.86</v>
+        <v>373832.86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2525,16 +2727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2586,16 +2788,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1254,6 +1254,47 @@
         <charset val="134"/>
       </rPr>
       <t>2000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买1002的家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的家具，支付给张姐</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2489,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2563,7 +2604,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f>G2+E3-F3</f>
+        <f t="shared" ref="G3:G9" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -2584,7 +2625,7 @@
         <v>508</v>
       </c>
       <c r="G4" s="7">
-        <f>G3+E4-F4</f>
+        <f t="shared" si="0"/>
         <v>380233.86</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2608,7 +2649,7 @@
         <v>2258</v>
       </c>
       <c r="G5" s="7">
-        <f>G4+E5-F5</f>
+        <f t="shared" si="0"/>
         <v>377975.86</v>
       </c>
       <c r="H5" t="s">
@@ -2632,7 +2673,7 @@
         <v>995</v>
       </c>
       <c r="G6" s="7">
-        <f>G5+E6-F6</f>
+        <f t="shared" si="0"/>
         <v>376980.86</v>
       </c>
       <c r="H6" t="s">
@@ -2656,7 +2697,7 @@
         <v>884</v>
       </c>
       <c r="G7" s="7">
-        <f>G6+E7-F7</f>
+        <f t="shared" si="0"/>
         <v>376096.86</v>
       </c>
       <c r="H7" t="s">
@@ -2680,38 +2721,74 @@
         <v>2264</v>
       </c>
       <c r="G8" s="7">
-        <f>G7+E8-F8</f>
+        <f t="shared" si="0"/>
         <v>373832.86</v>
       </c>
       <c r="H8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>181007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>181007</v>
+      </c>
+      <c r="F9">
+        <v>280</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>373552.86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14">
-        <f>SUM(E3:E12)</f>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <f>SUM(E3:E16)</f>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f>SUM(F3:F12)</f>
-        <v>17489</v>
-      </c>
-      <c r="G14" s="7">
-        <f>E14-F14</f>
-        <v>-17489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="F18">
+        <f>SUM(F3:F16)</f>
+        <v>17769</v>
+      </c>
+      <c r="G18" s="7">
+        <f>E18-F18</f>
+        <v>-17769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="7">
-        <f>G14+G2</f>
-        <v>373832.86</v>
+      <c r="G19" s="7">
+        <f>G18+G2</f>
+        <v>373552.86</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,6 +1296,14 @@
       </rPr>
       <t>的家具，支付给张姐</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买多种家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2533,7 +2541,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2604,7 +2612,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G9" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G10" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -2753,16 +2761,44 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>181008</v>
+      </c>
+      <c r="F10">
+        <v>7522.4</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>366030.45999999996</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -2775,11 +2811,11 @@
       </c>
       <c r="F18">
         <f>SUM(F3:F16)</f>
-        <v>17769</v>
+        <v>25291.4</v>
       </c>
       <c r="G18" s="7">
         <f>E18-F18</f>
-        <v>-17769</v>
+        <v>-25291.4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2788,7 +2824,7 @@
       </c>
       <c r="G19" s="7">
         <f>G18+G2</f>
-        <v>373552.86</v>
+        <v>366030.45999999996</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,6 +1304,26 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买地毯和家具拉手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，地毯76；2，家具拉手19.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买多种服装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2612,7 +2632,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G10" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G12" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -2761,6 +2781,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10">
+        <v>181007</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
@@ -2782,14 +2805,52 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11">
+        <v>181008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>181009</v>
+      </c>
+      <c r="F11">
+        <v>95.7</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>365934.75999999995</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12">
+        <v>181008</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>181010</v>
+      </c>
+      <c r="F12">
+        <v>2567.62</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>363367.13999999996</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="1"/>
@@ -2811,11 +2872,11 @@
       </c>
       <c r="F18">
         <f>SUM(F3:F16)</f>
-        <v>25291.4</v>
+        <v>27954.720000000001</v>
       </c>
       <c r="G18" s="7">
         <f>E18-F18</f>
-        <v>-25291.4</v>
+        <v>-27954.720000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2824,7 +2885,7 @@
       </c>
       <c r="G19" s="7">
         <f>G18+G2</f>
-        <v>366030.45999999996</v>
+        <v>363367.14</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,6 +1324,18 @@
   </si>
   <si>
     <t>购买多种服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,物美购物94.51；2，拼多多买食品51.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物美和拼多多买食品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2558,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2632,7 +2644,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G12" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G13" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -2853,7 +2865,28 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="1"/>
+      <c r="A13">
+        <v>181012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13">
+        <v>181011</v>
+      </c>
+      <c r="F13">
+        <v>146.16999999999999</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>363220.97</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="H14" s="1"/>
@@ -2861,31 +2894,43 @@
     <row r="15" spans="1:8">
       <c r="H15" s="1"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:8">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18">
-        <f>SUM(E3:E16)</f>
+      <c r="C22" s="1"/>
+      <c r="E22">
+        <f>SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F18">
-        <f>SUM(F3:F16)</f>
-        <v>27954.720000000001</v>
-      </c>
-      <c r="G18" s="7">
-        <f>E18-F18</f>
-        <v>-27954.720000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="F22">
+        <f>SUM(F3:F20)</f>
+        <v>28100.89</v>
+      </c>
+      <c r="G22" s="7">
+        <f>E22-F22</f>
+        <v>-28100.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="7">
-        <f>G18+G2</f>
-        <v>363367.14</v>
+      <c r="G23" s="7">
+        <f>G22+G2</f>
+        <v>363220.97</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,18 +1336,26 @@
   </si>
   <si>
     <t>物美和拼多多买食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,8 +1410,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1420,31 +1432,35 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1735,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,15 +1759,15 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -1811,7 +1827,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -1832,7 +1848,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -1874,7 +1890,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25">
+    <row r="7" spans="1:8" ht="42">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1919,7 +1935,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1940,7 +1956,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1961,7 +1977,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1979,7 +1995,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2009,14 +2025,14 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2063,7 +2079,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -2105,7 +2121,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -2126,7 +2142,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12">
         <v>180926</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13">
         <v>180925</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14">
         <v>180926</v>
       </c>
@@ -2354,7 +2370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.5">
+    <row r="16" spans="1:9" ht="30">
       <c r="A16">
         <v>180927</v>
       </c>
@@ -2381,7 +2397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17">
         <v>180928</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18">
         <v>180928</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19">
         <v>180929</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>394613.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20">
         <v>180929</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57">
+    <row r="21" spans="1:8" ht="60">
       <c r="A21">
         <v>180930</v>
       </c>
@@ -2493,7 +2509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57">
+    <row r="22" spans="1:8" ht="60">
       <c r="A22">
         <v>180930</v>
       </c>
@@ -2517,19 +2533,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>159573.86000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2569,21 +2585,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2643,7 @@
         <v>391321.86</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3">
         <v>181003</v>
       </c>
@@ -2644,11 +2660,11 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G13" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G14" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4">
         <v>181003</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>181005</v>
       </c>
@@ -2696,7 +2712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>181005</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>181006</v>
       </c>
@@ -2744,7 +2760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>181006</v>
       </c>
@@ -2768,7 +2784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>181007</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>181007</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11">
         <v>181008</v>
       </c>
@@ -2840,7 +2856,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12">
         <v>181008</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13">
         <v>181012</v>
       </c>
@@ -2888,25 +2904,46 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14">
+        <v>181013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>181012</v>
+      </c>
+      <c r="F14">
+        <v>2589.4699999999998</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>360631.5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15">
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="15">
       <c r="H19" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2917,26 +2954,26 @@
       </c>
       <c r="F22">
         <f>SUM(F3:F20)</f>
-        <v>28100.89</v>
+        <v>30690.36</v>
       </c>
       <c r="G22" s="7">
         <f>E22-F22</f>
-        <v>-28100.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-30690.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="7">
         <f>G22+G2</f>
-        <v>363220.97</v>
+        <v>360631.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2946,16 +2983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3007,16 +3044,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1344,18 +1344,26 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">邢颖 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,18 +1440,19 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1452,15 +1461,14 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1751,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,15 +1767,15 @@
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="41.25">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -1956,7 +1964,7 @@
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -1977,7 +1985,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2017,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2025,14 +2033,14 @@
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>180902</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -2232,7 +2240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>180926</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>180925</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>180926</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="28.5">
       <c r="A16">
         <v>180927</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>180928</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>180928</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>180929</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>394613.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>180929</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60">
+    <row r="21" spans="1:8" ht="57">
       <c r="A21">
         <v>180930</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60">
+    <row r="22" spans="1:8" ht="57">
       <c r="A22">
         <v>180930</v>
       </c>
@@ -2533,19 +2541,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2563,7 +2571,7 @@
         <v>159573.86000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2585,21 +2593,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2651,7 @@
         <v>391321.86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>181003</v>
       </c>
@@ -2660,11 +2668,11 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G14" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G16" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>181003</v>
       </c>
@@ -2688,7 +2696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>181005</v>
       </c>
@@ -2712,7 +2720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>181005</v>
       </c>
@@ -2736,7 +2744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>181006</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>181006</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>181007</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>181007</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>181008</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>181008</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>181012</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>181013</v>
       </c>
@@ -2928,22 +2936,64 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>181014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>181013</v>
+      </c>
+      <c r="F15">
+        <v>5093.8100000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>355537.69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>181014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>181014</v>
+      </c>
+      <c r="F16">
+        <v>1333.77</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>354203.92</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8">
       <c r="H19" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2954,26 +3004,26 @@
       </c>
       <c r="F22">
         <f>SUM(F3:F20)</f>
-        <v>30690.36</v>
+        <v>37117.939999999995</v>
       </c>
       <c r="G22" s="7">
         <f>E22-F22</f>
-        <v>-30690.36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15">
+        <v>-37117.939999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="7">
         <f>G22+G2</f>
-        <v>360631.5</v>
+        <v>354203.92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2983,16 +3033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3044,16 +3094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1352,6 +1352,18 @@
   </si>
   <si>
     <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见采购明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,8 +2041,8 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2594,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2668,7 +2680,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G16" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G17" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -2985,39 +2997,75 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="H17" s="1"/>
+      <c r="A17">
+        <v>181017</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>181015</v>
+      </c>
+      <c r="F17">
+        <v>9120.7999999999993</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>345083.12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="H19" s="1"/>
     </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="1"/>
+    </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="E22">
-        <f>SUM(E3:E20)</f>
+      <c r="C25" s="1"/>
+      <c r="E25">
+        <f>SUM(E3:E23)</f>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f>SUM(F3:F20)</f>
-        <v>37117.939999999995</v>
-      </c>
-      <c r="G22" s="7">
-        <f>E22-F22</f>
-        <v>-37117.939999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+      <c r="F25">
+        <f>SUM(F3:F23)</f>
+        <v>46238.739999999991</v>
+      </c>
+      <c r="G25" s="7">
+        <f>E25-F25</f>
+        <v>-46238.739999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="7">
-        <f>G22+G2</f>
-        <v>354203.92</v>
+      <c r="G26" s="7">
+        <f>G25+G2</f>
+        <v>345083.12</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1364,6 +1364,10 @@
   </si>
   <si>
     <t>见采购明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品和服务费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2608,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2680,7 +2684,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G17" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G18" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3021,9 +3025,28 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18">
+        <v>181019</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>181016</v>
+      </c>
+      <c r="F18">
+        <v>1373.24</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>343709.88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="1"/>
@@ -3052,11 +3075,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>46238.739999999991</v>
+        <v>47611.979999999989</v>
       </c>
       <c r="G25" s="7">
         <f>E25-F25</f>
-        <v>-46238.739999999991</v>
+        <v>-47611.979999999989</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3065,7 +3088,7 @@
       </c>
       <c r="G26" s="7">
         <f>G25+G2</f>
-        <v>345083.12</v>
+        <v>343709.88</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2612,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3049,13 +3049,33 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19">
+        <v>181019</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>181017</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="1"/>
+      <c r="A20">
+        <v>181019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C20" s="1"/>
+      <c r="D20">
+        <v>181018</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1368,6 +1368,10 @@
   </si>
   <si>
     <t>多种物品和服务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2612,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2684,7 +2688,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G18" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G20" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3061,6 +3065,13 @@
       <c r="D19">
         <v>181017</v>
       </c>
+      <c r="F19">
+        <v>1361.18</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>342348.7</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>100</v>
       </c>
@@ -3072,11 +3083,22 @@
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D20">
         <v>181018</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="F20">
+        <v>320.8</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>342027.9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="1"/>
@@ -3095,11 +3117,11 @@
       </c>
       <c r="F25">
         <f>SUM(F3:F23)</f>
-        <v>47611.979999999989</v>
+        <v>49293.959999999992</v>
       </c>
       <c r="G25" s="7">
         <f>E25-F25</f>
-        <v>-47611.979999999989</v>
+        <v>-49293.959999999992</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3108,7 +3130,7 @@
       </c>
       <c r="G26" s="7">
         <f>G25+G2</f>
-        <v>343709.88</v>
+        <v>342027.9</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1372,6 +1372,14 @@
   </si>
   <si>
     <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布艺门帘X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2614,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2688,7 +2696,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G20" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G21" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3101,36 +3109,82 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="H21" s="1"/>
+      <c r="A21">
+        <v>181021</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>181019</v>
+      </c>
+      <c r="F21">
+        <v>397</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>341630.9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="H22" s="1"/>
     </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25">
-        <f>SUM(E3:E23)</f>
+      <c r="C30" s="1"/>
+      <c r="E30">
+        <f>SUM(E3:E28)</f>
         <v>0</v>
       </c>
-      <c r="F25">
-        <f>SUM(F3:F23)</f>
-        <v>49293.959999999992</v>
-      </c>
-      <c r="G25" s="7">
-        <f>E25-F25</f>
-        <v>-49293.959999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="F30">
+        <f>SUM(F3:F28)</f>
+        <v>49690.959999999992</v>
+      </c>
+      <c r="G30" s="7">
+        <f>E30-F30</f>
+        <v>-49690.959999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="7">
-        <f>G25+G2</f>
-        <v>342027.9</v>
+      <c r="G31" s="7">
+        <f>G30+G2</f>
+        <v>341630.9</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1380,6 +1380,18 @@
   </si>
   <si>
     <t>定做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,钻头套装90.97；2，插线板113.69</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2624,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2696,7 +2708,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G21" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G22" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3133,9 +3145,28 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22">
+        <v>181023</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22">
+        <v>181020</v>
+      </c>
+      <c r="F22">
+        <v>204.66</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>341426.24000000005</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="1"/>
@@ -3171,11 +3202,11 @@
       </c>
       <c r="F30">
         <f>SUM(F3:F28)</f>
-        <v>49690.959999999992</v>
+        <v>49895.619999999995</v>
       </c>
       <c r="G30" s="7">
         <f>E30-F30</f>
-        <v>-49690.959999999992</v>
+        <v>-49895.619999999995</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3184,7 +3215,7 @@
       </c>
       <c r="G31" s="7">
         <f>G30+G2</f>
-        <v>341630.9</v>
+        <v>341426.24</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,6 +1392,10 @@
   </si>
   <si>
     <t>1,钻头套装90.97；2，插线板113.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2637,7 +2641,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2708,7 +2712,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G22" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G23" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3169,9 +3173,28 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="A23">
+        <v>181023</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>181021</v>
+      </c>
+      <c r="F23">
+        <v>9538.23</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>331888.01000000007</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="1"/>
@@ -3202,11 +3225,11 @@
       </c>
       <c r="F30">
         <f>SUM(F3:F28)</f>
-        <v>49895.619999999995</v>
+        <v>59433.849999999991</v>
       </c>
       <c r="G30" s="7">
         <f>E30-F30</f>
-        <v>-49895.619999999995</v>
+        <v>-59433.849999999991</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3215,7 +3238,7 @@
       </c>
       <c r="G31" s="7">
         <f>G30+G2</f>
-        <v>341426.24</v>
+        <v>331888.01</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -13,7 +13,7 @@
     <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
     <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,6 +1396,30 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付美团点评上线费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2638,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2712,7 +2736,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G26" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3197,48 +3221,123 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24">
+        <v>181026</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24">
+        <v>181022</v>
+      </c>
+      <c r="F24">
+        <v>187.54</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>331700.47000000009</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25">
+        <v>181026</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>181023</v>
+      </c>
+      <c r="F25">
+        <v>4273.42</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>327427.0500000001</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26">
+        <v>181026</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>181024</v>
+      </c>
+      <c r="F26">
+        <v>26800</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>300627.0500000001</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="H27" s="1"/>
     </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="E30">
-        <f>SUM(E3:E28)</f>
+      <c r="C34" s="1"/>
+      <c r="E34">
+        <f>SUM(E3:E32)</f>
         <v>0</v>
       </c>
-      <c r="F30">
-        <f>SUM(F3:F28)</f>
-        <v>59433.849999999991</v>
-      </c>
-      <c r="G30" s="7">
-        <f>E30-F30</f>
-        <v>-59433.849999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
+      <c r="F34">
+        <f>SUM(F3:F32)</f>
+        <v>90694.81</v>
+      </c>
+      <c r="G34" s="7">
+        <f>E34-F34</f>
+        <v>-90694.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="7">
-        <f>G30+G2</f>
-        <v>331888.01</v>
+      <c r="G35" s="7">
+        <f>G34+G2</f>
+        <v>300627.05</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1420,6 +1420,14 @@
   </si>
   <si>
     <t>支付美团点评上线费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种服务费和餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2664,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2736,7 +2744,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G26" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G27" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3291,9 +3299,28 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27">
+        <v>181029</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27">
+        <v>181025</v>
+      </c>
+      <c r="F27">
+        <v>1418</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>299209.0500000001</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="1"/>
@@ -3324,11 +3351,11 @@
       </c>
       <c r="F34">
         <f>SUM(F3:F32)</f>
-        <v>90694.81</v>
+        <v>92112.81</v>
       </c>
       <c r="G34" s="7">
         <f>E34-F34</f>
-        <v>-90694.81</v>
+        <v>-92112.81</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3337,7 +3364,7 @@
       </c>
       <c r="G35" s="7">
         <f>G34+G2</f>
-        <v>300627.05</v>
+        <v>299209.05</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1428,6 +1428,30 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付武翰文设计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付员工10月工资和社保费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见工资表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付员工10月奖金（私帐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见奖金表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -2105,7 +2129,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2670,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="B25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2744,7 +2768,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G27" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G30" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3323,48 +3347,112 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28">
+        <v>181030</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28">
+        <v>181026</v>
+      </c>
+      <c r="F28">
+        <v>3000</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>296209.0500000001</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="A29">
+        <v>181030</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29">
+        <v>181027</v>
+      </c>
+      <c r="F29">
+        <v>4761.96</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>291447.09000000008</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30">
+        <v>181030</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30">
+        <v>181028</v>
+      </c>
+      <c r="F30">
+        <v>3291.6</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>288155.49000000011</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="H31" s="1"/>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+    <row r="32" spans="1:8">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="E34">
-        <f>SUM(E3:E32)</f>
+      <c r="C37" s="1"/>
+      <c r="E37">
+        <f>SUM(E3:E35)</f>
         <v>0</v>
       </c>
-      <c r="F34">
-        <f>SUM(F3:F32)</f>
-        <v>92112.81</v>
-      </c>
-      <c r="G34" s="7">
-        <f>E34-F34</f>
-        <v>-92112.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="F37">
+        <f>SUM(F3:F35)</f>
+        <v>103166.37000000001</v>
+      </c>
+      <c r="G37" s="7">
+        <f>E37-F37</f>
+        <v>-103166.37000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="7">
-        <f>G34+G2</f>
-        <v>299209.05</v>
+      <c r="G38" s="7">
+        <f>G37+G2</f>
+        <v>288155.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1452,6 +1452,22 @@
   </si>
   <si>
     <t>见奖金表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布线工程款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三笔学生传单300+300+400，一场实景6人1440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三笔外派劳务及一场预订费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1862,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -2694,15 +2710,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
@@ -2768,7 +2784,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G30" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G32" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3417,10 +3433,50 @@
       </c>
     </row>
     <row r="31" spans="1:8">
+      <c r="A31">
+        <v>181030</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31">
+        <v>181029</v>
+      </c>
+      <c r="F31">
+        <v>2000</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>286155.49000000011</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="H32" s="1"/>
+      <c r="A32">
+        <v>181030</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32">
+        <v>181030</v>
+      </c>
+      <c r="F32">
+        <v>2440</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>283715.49000000011</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="H33" s="1"/>
@@ -3428,31 +3484,37 @@
     <row r="34" spans="1:8">
       <c r="H34" s="1"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
+    <row r="35" spans="1:8">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="E37">
-        <f>SUM(E3:E35)</f>
+      <c r="C39" s="1"/>
+      <c r="E39">
+        <f>SUM(E3:E37)</f>
         <v>0</v>
       </c>
-      <c r="F37">
-        <f>SUM(F3:F35)</f>
-        <v>103166.37000000001</v>
-      </c>
-      <c r="G37" s="7">
-        <f>E37-F37</f>
-        <v>-103166.37000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+      <c r="F39">
+        <f>SUM(F3:F37)</f>
+        <v>107606.37000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <f>E39-F39</f>
+        <v>-107606.37000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="7">
-        <f>G37+G2</f>
-        <v>288155.49</v>
+      <c r="G40" s="7">
+        <f>G39+G2</f>
+        <v>283715.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1468,6 +1468,14 @@
   </si>
   <si>
     <t>三笔外派劳务及一场预订费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安的霸王餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2712,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -2784,7 +2792,7 @@
         <v>10580</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G32" si="0">G2+E3-F3</f>
+        <f t="shared" ref="G3:G33" si="0">G2+E3-F3</f>
         <v>380741.86</v>
       </c>
     </row>
@@ -3479,6 +3487,25 @@
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="A33">
+        <v>181031</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33">
+        <v>181031</v>
+      </c>
+      <c r="F33">
+        <v>725</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>282990.49000000011</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
@@ -3501,11 +3528,11 @@
       </c>
       <c r="F39">
         <f>SUM(F3:F37)</f>
-        <v>107606.37000000001</v>
+        <v>108331.37000000001</v>
       </c>
       <c r="G39" s="7">
         <f>E39-F39</f>
-        <v>-107606.37000000001</v>
+        <v>-108331.37000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3514,7 +3541,7 @@
       </c>
       <c r="G40" s="7">
         <f>G39+G2</f>
-        <v>283715.49</v>
+        <v>282990.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1476,6 +1476,77 @@
   </si>
   <si>
     <t>卢安的霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资</t>
+  </si>
+  <si>
+    <t>融资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主营收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,22 +1955,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,38 +1978,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="3">
+      <c r="E2" s="1"/>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>20180828</v>
       </c>
@@ -1946,20 +2021,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50000</v>
       </c>
-      <c r="G3" s="3">
-        <f>G2+E3-F3</f>
+      <c r="H3" s="3">
+        <f>H2+F3-G3</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>20180828</v>
       </c>
@@ -1967,20 +2045,23 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>50000</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G10" si="0">G3+E4-F4</f>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H10" si="0">H3+F4-G4</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>20180828</v>
       </c>
@@ -1988,20 +2069,23 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>50000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>20180829</v>
       </c>
@@ -2009,20 +2093,23 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>50000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25">
+    <row r="7" spans="1:9" ht="41.25">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -2030,23 +2117,26 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>180801</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>18000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>182000</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>20180829</v>
       </c>
@@ -2054,20 +2144,23 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>50000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>232000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>20180831</v>
       </c>
@@ -2075,20 +2168,23 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>180802</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>158</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>231842</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>20180831</v>
       </c>
@@ -2096,44 +2192,124 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>180803</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>94</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>231748</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12">
-        <f>SUM(E3:E10)</f>
-        <v>250000</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="F12">
         <f>SUM(F3:F10)</f>
+        <v>250000</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G3:G10)</f>
         <v>18252</v>
       </c>
-      <c r="G12" s="3">
-        <f>E12-F12</f>
+      <c r="H12" s="3">
+        <f>F12-G12</f>
         <v>231748</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3">
-        <f>G10</f>
+      <c r="H13" s="3">
+        <f>H10</f>
         <v>231748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B18:B20)</f>
+        <v>250000</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C21:C24)</f>
+        <v>18252</v>
       </c>
     </row>
   </sheetData>
@@ -2150,21 +2326,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,67 +2350,74 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
-        <f>'8月明细账'!G13</f>
+      <c r="H2" s="3">
+        <f>'8月明细账'!H13</f>
         <v>231748</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>180902</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>180901</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="7">
         <v>106</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G22" si="0">G2-F3+E3</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H22" si="0">H2-G3+F3</f>
         <v>231642</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>180904</v>
       </c>
@@ -2240,20 +2425,23 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="7">
         <v>100000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>331642</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>180904</v>
       </c>
@@ -2261,20 +2449,23 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="7">
         <v>50000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>381642</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>180905</v>
       </c>
@@ -2282,20 +2473,23 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="7">
         <v>100000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>481642</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>180908</v>
       </c>
@@ -2303,20 +2497,23 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="7">
         <v>50000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>531642</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>180921</v>
       </c>
@@ -2324,20 +2521,23 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="7">
         <v>127.12</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>531769.12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9">
         <v>180923</v>
       </c>
@@ -2345,26 +2545,29 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>180902</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="7">
         <v>122500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>409269.12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>180925</v>
       </c>
@@ -2372,20 +2575,23 @@
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>180903</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="7">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>408669.12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>180925</v>
       </c>
@@ -2393,20 +2599,23 @@
         <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>180904</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="7">
         <v>1000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>407669.12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>180926</v>
       </c>
@@ -2414,23 +2623,26 @@
         <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>180905</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="7">
         <v>4597.3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>403071.82</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>180925</v>
       </c>
@@ -2438,23 +2650,26 @@
         <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>180906</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="7">
         <v>77</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>402994.82</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>180926</v>
       </c>
@@ -2462,23 +2677,26 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>180907</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="7">
         <v>160</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>402834.82</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="34.5" customHeight="1">
+    <row r="15" spans="1:10" ht="34.5" customHeight="1">
       <c r="A15">
         <v>180926</v>
       </c>
@@ -2486,23 +2704,26 @@
         <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>180908</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="7">
         <v>164</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>402670.82</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.5">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16">
         <v>180927</v>
       </c>
@@ -2510,26 +2731,29 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>180909</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="7">
         <v>4811</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>397859.82</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>180928</v>
       </c>
@@ -2537,23 +2761,26 @@
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>180910</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="7">
         <v>1458</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>396401.82</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>180928</v>
       </c>
@@ -2561,21 +2788,22 @@
         <v>69</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18">
+      <c r="D18" s="1"/>
+      <c r="E18">
         <v>180911</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>396401.82</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>180929</v>
       </c>
@@ -2583,20 +2811,23 @@
         <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>180912</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="7">
         <v>1788</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>394613.82</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>180929</v>
       </c>
@@ -2604,20 +2835,23 @@
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>180913</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="7">
         <v>1372</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
         <v>393241.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57">
+    <row r="21" spans="1:9" ht="57">
       <c r="A21">
         <v>180930</v>
       </c>
@@ -2625,23 +2859,26 @@
         <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>180914</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="7">
         <v>390.86</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>392850.96</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57">
+    <row r="22" spans="1:9" ht="57">
       <c r="A22">
         <v>180930</v>
       </c>
@@ -2649,59 +2886,142 @@
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>180915</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="7">
         <v>1529.1</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>391321.86000000004</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="E28">
-        <f>SUM(E3:E26)</f>
+      <c r="D28" s="1"/>
+      <c r="F28" s="7">
+        <f>SUM(F3:F26)</f>
         <v>300127.12</v>
       </c>
-      <c r="F28">
-        <f>SUM(F3:F26)</f>
+      <c r="G28" s="7">
+        <f>SUM(G3:G26)</f>
         <v>140553.25999999998</v>
       </c>
-      <c r="G28" s="3">
-        <f>E28-F28</f>
+      <c r="H28" s="3">
+        <f>F28-G28</f>
         <v>159573.86000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="3">
-        <f>G28+G2</f>
+      <c r="H29" s="3">
+        <f>H28+H2</f>
         <v>391321.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35">
+        <v>127.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="7">
+        <f>G9+G10+G11</f>
+        <v>124100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="7">
+        <f>G12+G16+G17+G19+G20+G21+G22</f>
+        <v>15946.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="7">
+        <f>G3+G13+G14+G15</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40">
+        <f>SUM(B33:B35)</f>
+        <v>300127.12</v>
+      </c>
+      <c r="C40" s="7">
+        <f>SUM(C36:C39)</f>
+        <v>140553.26</v>
       </c>
     </row>
   </sheetData>
@@ -2718,20 +3038,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2739,43 +3060,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7">
-        <f>'9月明细账'!G29</f>
+      <c r="H2" s="7">
+        <f>'9月明细账'!H29</f>
         <v>391321.86</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>181003</v>
       </c>
@@ -2783,20 +3108,23 @@
         <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>181001</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="7">
         <v>10580</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G33" si="0">G2+E3-F3</f>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H33" si="0">H2+F3-G3</f>
         <v>380741.86</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>181003</v>
       </c>
@@ -2804,23 +3132,26 @@
         <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>181002</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="7">
         <v>508</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>380233.86</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>181005</v>
       </c>
@@ -2828,23 +3159,26 @@
         <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>181003</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="7">
         <v>2258</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>377975.86</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>181005</v>
       </c>
@@ -2852,23 +3186,26 @@
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>181004</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="7">
         <v>995</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>376980.86</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>181006</v>
       </c>
@@ -2876,23 +3213,26 @@
         <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>181005</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="7">
         <v>884</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>376096.86</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>181006</v>
       </c>
@@ -2900,23 +3240,26 @@
         <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>181006</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="7">
         <v>2264</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>373832.86</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>181007</v>
       </c>
@@ -2924,23 +3267,26 @@
         <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>181007</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="7">
         <v>280</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>373552.86</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>181007</v>
       </c>
@@ -2948,23 +3294,26 @@
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>181008</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="7">
         <v>7522.4</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>366030.45999999996</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>181008</v>
       </c>
@@ -2972,23 +3321,26 @@
         <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>181009</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="7">
         <v>95.7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>365934.75999999995</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>181008</v>
       </c>
@@ -2996,23 +3348,26 @@
         <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>181010</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="7">
         <v>2567.62</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>363367.13999999996</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>181012</v>
       </c>
@@ -3020,23 +3375,26 @@
         <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>181011</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="7">
         <v>146.16999999999999</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>363220.97</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>181013</v>
       </c>
@@ -3044,23 +3402,26 @@
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>181012</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="7">
         <v>2589.4699999999998</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>360631.5</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>181014</v>
       </c>
@@ -3068,23 +3429,26 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>181013</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="7">
         <v>5093.8100000000004</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>355537.69</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>181014</v>
       </c>
@@ -3092,23 +3456,26 @@
         <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>181014</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="7">
         <v>1333.77</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>354203.92</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>181017</v>
       </c>
@@ -3116,23 +3483,26 @@
         <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>181015</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="7">
         <v>9120.7999999999993</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>345083.12</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>181019</v>
       </c>
@@ -3140,23 +3510,26 @@
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>181016</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="7">
         <v>1373.24</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>343709.88</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>181019</v>
       </c>
@@ -3164,23 +3537,26 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>181017</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="7">
         <v>1361.18</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>342348.7</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>181019</v>
       </c>
@@ -3188,23 +3564,26 @@
         <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>181018</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="7">
         <v>320.8</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
         <v>342027.9</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>181021</v>
       </c>
@@ -3212,23 +3591,26 @@
         <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>181019</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="7">
         <v>397</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <f t="shared" si="0"/>
         <v>341630.9</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>181023</v>
       </c>
@@ -3236,23 +3618,26 @@
         <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>181020</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="7">
         <v>204.66</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
         <v>341426.24000000005</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>181023</v>
       </c>
@@ -3260,23 +3645,26 @@
         <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>181021</v>
       </c>
-      <c r="F23">
+      <c r="G23" s="7">
         <v>9538.23</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <f t="shared" si="0"/>
         <v>331888.01000000007</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>181026</v>
       </c>
@@ -3284,23 +3672,26 @@
         <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>181022</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="7">
         <v>187.54</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>331700.47000000009</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>181026</v>
       </c>
@@ -3308,23 +3699,26 @@
         <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>181023</v>
       </c>
-      <c r="F25">
+      <c r="G25" s="7">
         <v>4273.42</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>327427.0500000001</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>181026</v>
       </c>
@@ -3332,21 +3726,24 @@
         <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>181024</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="7">
         <v>26800</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>300627.0500000001</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>181029</v>
       </c>
@@ -3354,23 +3751,26 @@
         <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>181025</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="7">
         <v>1418</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>299209.0500000001</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>181030</v>
       </c>
@@ -3378,21 +3778,24 @@
         <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>181026</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="7">
         <v>3000</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>296209.0500000001</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>181030</v>
       </c>
@@ -3400,23 +3803,26 @@
         <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>181027</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="7">
         <v>4761.96</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>291447.09000000008</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>181030</v>
       </c>
@@ -3424,23 +3830,26 @@
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>181028</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="7">
         <v>3291.6</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>288155.49000000011</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>181030</v>
       </c>
@@ -3448,21 +3857,24 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>181029</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="7">
         <v>2000</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
         <v>286155.49000000011</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>181030</v>
       </c>
@@ -3470,23 +3882,26 @@
         <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>181030</v>
       </c>
-      <c r="F32">
+      <c r="G32" s="7">
         <v>2440</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
         <v>283715.49000000011</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>181031</v>
       </c>
@@ -3494,55 +3909,151 @@
         <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>181031</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="7">
         <v>725</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
         <v>282990.49000000011</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="H36" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="E39">
-        <f>SUM(E3:E37)</f>
+      <c r="D37" s="1"/>
+      <c r="F37">
+        <f>SUM(F3:F35)</f>
         <v>0</v>
       </c>
-      <c r="F39">
-        <f>SUM(F3:F37)</f>
+      <c r="G37" s="7">
+        <f>SUM(G3:G35)</f>
         <v>108331.37000000001</v>
       </c>
-      <c r="G39" s="7">
-        <f>E39-F39</f>
+      <c r="H37" s="7">
+        <f>F37-G37</f>
         <v>-108331.37000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="7">
-        <f>G39+G2</f>
+      <c r="H38" s="7">
+        <f>H37+H2</f>
         <v>282990.49</v>
       </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="7">
+        <f>G3</f>
+        <v>10580</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="7">
+        <f>SUM(G8:G12)+SUM(G14:G27)+G5+G31</f>
+        <v>80999.64</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="7">
+        <f>G4+G6+G7+G13+G32+G33</f>
+        <v>5698.17</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="7">
+        <f>SUM(G28:G30)</f>
+        <v>11053.56</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50">
+        <f>SUM(B43:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <f>SUM(C46:C49)</f>
+        <v>108331.37</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="H50" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3558,15 +4069,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3574,36 +4088,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" s="7">
+        <f>'10月明细账'!H38</f>
+        <v>282990.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1547,6 +1547,18 @@
   </si>
   <si>
     <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买电动手电转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3041,7 +3053,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4069,15 +4081,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="7" width="8.875" style="7"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4096,10 +4113,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4128,9 +4145,62 @@
         <v>282990.49</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>181101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>181101</v>
+      </c>
+      <c r="G3" s="7">
+        <v>378</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+F3-G3</f>
+        <v>282612.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="7">
+        <f>SUM(F3:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(G3:G10)</f>
+        <v>378</v>
+      </c>
+      <c r="H11" s="7">
+        <f>F11-G11</f>
+        <v>-378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12"/>
+      <c r="H12" s="7">
+        <f>H11+H2</f>
+        <v>282612.49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4141,15 +4211,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4157,37 +4227,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1559,6 +1559,18 @@
   </si>
   <si>
     <t>购买电动手电转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小剧场布置费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4084,7 +4096,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4169,6 +4181,30 @@
         <v>282612.49</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>181103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>181102</v>
+      </c>
+      <c r="G4" s="7">
+        <v>788</v>
+      </c>
+      <c r="H4" s="7">
+        <f>H3+F4-G4</f>
+        <v>281824.49</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>24</v>
@@ -4180,11 +4216,11 @@
       </c>
       <c r="G11" s="7">
         <f>SUM(G3:G10)</f>
-        <v>378</v>
+        <v>1166</v>
       </c>
       <c r="H11" s="7">
         <f>F11-G11</f>
-        <v>-378</v>
+        <v>-1166</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4194,7 +4230,7 @@
       <c r="F12"/>
       <c r="H12" s="7">
         <f>H11+H2</f>
-        <v>282612.49</v>
+        <v>281824.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1571,6 +1571,18 @@
   </si>
   <si>
     <t>小剧场布置费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王餐费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4096,7 +4108,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4205,6 +4217,30 @@
         <v>281824.49</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>181104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5">
+        <v>181103</v>
+      </c>
+      <c r="G5" s="7">
+        <v>840</v>
+      </c>
+      <c r="H5" s="7">
+        <f>H4+F5-G5</f>
+        <v>280984.49</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>24</v>
@@ -4216,11 +4252,11 @@
       </c>
       <c r="G11" s="7">
         <f>SUM(G3:G10)</f>
-        <v>1166</v>
+        <v>2006</v>
       </c>
       <c r="H11" s="7">
         <f>F11-G11</f>
-        <v>-1166</v>
+        <v>-2006</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4230,7 +4266,7 @@
       <c r="F12"/>
       <c r="H12" s="7">
         <f>H11+H2</f>
-        <v>281824.49</v>
+        <v>280984.49</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="183">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1583,6 +1583,156 @@
   </si>
   <si>
     <t>霸王餐费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新购买大床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大床</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，拆装费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，搬运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4105,10 +4255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4116,7 +4266,7 @@
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="7"/>
+    <col min="6" max="7" width="9.75" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
@@ -4241,32 +4391,124 @@
         <v>280984.49</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>181106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2350</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H5+F6-G6</f>
+        <v>283334.49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>181106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7">
+        <v>181104</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1680</v>
+      </c>
+      <c r="H7" s="7">
+        <f>H6+F7-G7</f>
+        <v>281654.49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>181106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8">
+        <v>181105</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3858.8</v>
+      </c>
+      <c r="H8" s="7">
+        <f>H7+F8-G8</f>
+        <v>277795.69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>181106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9">
+        <v>181106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="7">
-        <f>SUM(F3:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f>SUM(G3:G10)</f>
-        <v>2006</v>
-      </c>
-      <c r="H11" s="7">
-        <f>F11-G11</f>
-        <v>-2006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="F13" s="7">
+        <f>SUM(F3:F12)</f>
+        <v>2350</v>
+      </c>
+      <c r="G13" s="7">
+        <f>SUM(G3:G12)</f>
+        <v>7544.8</v>
+      </c>
+      <c r="H13" s="7">
+        <f>F13-G13</f>
+        <v>-5194.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12"/>
-      <c r="H12" s="7">
-        <f>H11+H2</f>
-        <v>280984.49</v>
+      <c r="F14"/>
+      <c r="H14" s="7">
+        <f>H13+H2</f>
+        <v>277795.69</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1733,6 +1733,120 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项开支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，小广告劳务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，推荐剧本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>823</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，水费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4258,7 +4372,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4339,7 +4453,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f>H2+F3-G3</f>
+        <f t="shared" ref="H3:H9" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4363,7 +4477,7 @@
         <v>788</v>
       </c>
       <c r="H4" s="7">
-        <f>H3+F4-G4</f>
+        <f t="shared" si="0"/>
         <v>281824.49</v>
       </c>
     </row>
@@ -4387,7 +4501,7 @@
         <v>840</v>
       </c>
       <c r="H5" s="7">
-        <f>H4+F5-G5</f>
+        <f t="shared" si="0"/>
         <v>280984.49</v>
       </c>
     </row>
@@ -4411,7 +4525,7 @@
         <v>2350</v>
       </c>
       <c r="H6" s="7">
-        <f>H5+F6-G6</f>
+        <f t="shared" si="0"/>
         <v>283334.49</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -4438,7 +4552,7 @@
         <v>1680</v>
       </c>
       <c r="H7" s="7">
-        <f>H6+F7-G7</f>
+        <f t="shared" si="0"/>
         <v>281654.49</v>
       </c>
       <c r="I7" t="s">
@@ -4465,7 +4579,7 @@
         <v>3858.8</v>
       </c>
       <c r="H8" s="7">
-        <f>H7+F8-G8</f>
+        <f t="shared" si="0"/>
         <v>277795.69</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -4479,8 +4593,24 @@
       <c r="B9" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E9">
         <v>181106</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1278</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>276517.69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4494,11 +4624,11 @@
       </c>
       <c r="G13" s="7">
         <f>SUM(G3:G12)</f>
-        <v>7544.8</v>
+        <v>8822.7999999999993</v>
       </c>
       <c r="H13" s="7">
         <f>F13-G13</f>
-        <v>-5194.8</v>
+        <v>-6472.7999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4508,7 +4638,7 @@
       <c r="F14"/>
       <c r="H14" s="7">
         <f>H13+H2</f>
-        <v>277795.69</v>
+        <v>276517.69</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="196">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,6 +1847,46 @@
       </rPr>
       <t>55</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付电费500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上平台结款预订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上平台结款团购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4369,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4453,7 +4493,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H9" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H12" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4613,32 +4653,115 @@
         <v>185</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>181109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10">
+        <v>181107</v>
+      </c>
+      <c r="G10" s="7">
+        <v>500</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>276017.69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>181109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4924.3500000000004</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>280942.03999999998</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>181109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="7">
+        <v>134.85</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>281076.88999999996</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="7">
-        <f>SUM(F3:F12)</f>
-        <v>2350</v>
-      </c>
-      <c r="G13" s="7">
-        <f>SUM(G3:G12)</f>
-        <v>8822.7999999999993</v>
-      </c>
-      <c r="H13" s="7">
-        <f>F13-G13</f>
-        <v>-6472.7999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="F17" s="7">
+        <f>SUM(F3:F16)</f>
+        <v>7409.2000000000007</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUM(G3:G16)</f>
+        <v>9322.7999999999993</v>
+      </c>
+      <c r="H17" s="7">
+        <f>F17-G17</f>
+        <v>-1913.5999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14"/>
-      <c r="H14" s="7">
-        <f>H13+H2</f>
-        <v>276517.69</v>
+      <c r="F18"/>
+      <c r="H18" s="7">
+        <f>H17+H2</f>
+        <v>281076.89</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,10 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大床退款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1887,6 +1883,18 @@
   </si>
   <si>
     <t>线上平台结款团购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买推理本及霸王餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3380,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD38"/>
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4409,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4493,7 +4501,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H12" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H13" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4553,13 +4561,13 @@
         <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F6" s="7">
         <v>2350</v>
@@ -4569,7 +4577,7 @@
         <v>283334.49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4583,7 +4591,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>181104</v>
@@ -4596,7 +4604,7 @@
         <v>281654.49</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4607,10 +4615,10 @@
         <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>181105</v>
@@ -4623,7 +4631,7 @@
         <v>277795.69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4631,13 +4639,13 @@
         <v>181106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E9">
         <v>181106</v>
@@ -4650,7 +4658,7 @@
         <v>276517.69</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4658,13 +4666,13 @@
         <v>181109</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E10">
         <v>181107</v>
@@ -4677,7 +4685,7 @@
         <v>276017.69</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4685,16 +4693,16 @@
         <v>181109</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F11" s="7">
         <v>4924.3500000000004</v>
@@ -4710,16 +4718,16 @@
         <v>181109</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F12" s="7">
         <v>134.85</v>
@@ -4731,37 +4739,62 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="F17" s="7">
-        <f>SUM(F3:F16)</f>
-        <v>7409.2000000000007</v>
-      </c>
-      <c r="G17" s="7">
-        <f>SUM(G3:G16)</f>
-        <v>9322.7999999999993</v>
-      </c>
-      <c r="H17" s="7">
-        <f>F17-G17</f>
-        <v>-1913.5999999999985</v>
-      </c>
+      <c r="A13">
+        <v>181111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="1">
+        <v>181108</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3547</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>277529.88999999996</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="7">
+        <f>SUM(F3:F17)</f>
+        <v>7409.2000000000007</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(G3:G17)</f>
+        <v>12869.8</v>
+      </c>
+      <c r="H18" s="7">
+        <f>F18-G18</f>
+        <v>-5460.5999999999985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18"/>
-      <c r="H18" s="7">
-        <f>H17+H2</f>
-        <v>281076.89</v>
+      <c r="F19"/>
+      <c r="H19" s="7">
+        <f>H18+H2</f>
+        <v>277529.89</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="206">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1895,6 +1895,100 @@
   </si>
   <si>
     <t>购买推理本及霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位店长劳务结款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人15天，按半月结算3200，另增加1天400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项开支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王餐和书本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，霸王餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>725</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，书本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4417,10 +4511,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4501,7 +4595,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H13" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4764,37 +4858,112 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="A14">
+        <v>181113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>181109</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7200</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>270329.88999999996</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>181113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="1">
+        <v>181110</v>
+      </c>
+      <c r="G15" s="7">
+        <v>414.8</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>269915.08999999997</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>181113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>181111</v>
+      </c>
+      <c r="G16" s="7">
+        <v>740</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>269175.08999999997</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="7">
-        <f>SUM(F3:F17)</f>
+      <c r="D20" s="1"/>
+      <c r="F20" s="7">
+        <f>SUM(F3:F19)</f>
         <v>7409.2000000000007</v>
       </c>
-      <c r="G18" s="7">
-        <f>SUM(G3:G17)</f>
-        <v>12869.8</v>
-      </c>
-      <c r="H18" s="7">
-        <f>F18-G18</f>
-        <v>-5460.5999999999985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="G20" s="7">
+        <f>SUM(G3:G19)</f>
+        <v>21224.6</v>
+      </c>
+      <c r="H20" s="7">
+        <f>F20-G20</f>
+        <v>-13815.399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F19"/>
-      <c r="H19" s="7">
-        <f>H18+H2</f>
-        <v>277529.89</v>
+      <c r="F21"/>
+      <c r="H21" s="7">
+        <f>H20+H2</f>
+        <v>269175.08999999997</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="210">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1989,6 +1989,22 @@
       </rPr>
       <t>15</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱装修见附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱布线及灯具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4511,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4595,7 +4611,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4938,32 +4954,59 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>181115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="1">
+        <v>181112</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4228</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>264947.08999999997</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="F20" s="7">
-        <f>SUM(F3:F19)</f>
+      <c r="D21" s="1"/>
+      <c r="F21" s="7">
+        <f>SUM(F3:F20)</f>
         <v>7409.2000000000007</v>
       </c>
-      <c r="G20" s="7">
-        <f>SUM(G3:G19)</f>
-        <v>21224.6</v>
-      </c>
-      <c r="H20" s="7">
-        <f>F20-G20</f>
-        <v>-13815.399999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="G21" s="7">
+        <f>SUM(G3:G20)</f>
+        <v>25452.6</v>
+      </c>
+      <c r="H21" s="7">
+        <f>F21-G21</f>
+        <v>-18043.399999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21"/>
-      <c r="H21" s="7">
-        <f>H20+H2</f>
-        <v>269175.08999999997</v>
+      <c r="F22"/>
+      <c r="H22" s="7">
+        <f>H21+H2</f>
+        <v>264947.08999999997</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="214">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2005,6 +2005,22 @@
   </si>
   <si>
     <t>音箱布线及灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1五人725,2一人145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁笼子的运费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4527,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4611,7 +4627,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H19" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -4981,32 +4997,86 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>181115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="1">
+        <v>181113</v>
+      </c>
+      <c r="G18" s="7">
+        <v>870</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>264077.08999999997</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>181115</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="1">
+        <v>181114</v>
+      </c>
+      <c r="G19" s="7">
+        <v>222</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>263855.08999999997</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="F21" s="7">
-        <f>SUM(F3:F20)</f>
+      <c r="D25" s="1"/>
+      <c r="F25" s="7">
+        <f>SUM(F3:F24)</f>
         <v>7409.2000000000007</v>
       </c>
-      <c r="G21" s="7">
-        <f>SUM(G3:G20)</f>
-        <v>25452.6</v>
-      </c>
-      <c r="H21" s="7">
-        <f>F21-G21</f>
-        <v>-18043.399999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+      <c r="G25" s="7">
+        <f>SUM(G3:G24)</f>
+        <v>26544.6</v>
+      </c>
+      <c r="H25" s="7">
+        <f>F25-G25</f>
+        <v>-19135.399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F22"/>
-      <c r="H22" s="7">
-        <f>H21+H2</f>
-        <v>264947.08999999997</v>
+      <c r="F26"/>
+      <c r="H26" s="7">
+        <f>H25+H2</f>
+        <v>263855.08999999997</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="217">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2016,11 +2016,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搬运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁笼子的运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笼子的运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笼子的上楼费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上楼费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人霸王餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4546,7 +4558,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4627,7 +4639,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H19" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5035,7 +5047,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1">
         <v>181114</v>
@@ -5048,7 +5060,61 @@
         <v>263855.08999999997</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>181115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="1">
+        <v>181115</v>
+      </c>
+      <c r="G20" s="7">
+        <v>200</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>263655.08999999997</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>181115</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1">
+        <v>181116</v>
+      </c>
+      <c r="G21" s="7">
+        <v>145</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>263510.08999999997</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5062,11 +5128,11 @@
       </c>
       <c r="G25" s="7">
         <f>SUM(G3:G24)</f>
-        <v>26544.6</v>
+        <v>26889.599999999999</v>
       </c>
       <c r="H25" s="7">
         <f>F25-G25</f>
-        <v>-19135.399999999998</v>
+        <v>-19480.399999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5076,7 +5142,7 @@
       <c r="F26"/>
       <c r="H26" s="7">
         <f>H25+H2</f>
-        <v>263855.08999999997</v>
+        <v>263510.08999999997</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="225">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2033,6 +2033,38 @@
   </si>
   <si>
     <t>一人霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁费和员工餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，保洁费700；2，员工餐215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配钥匙和小潘劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，配钥匙100；2，小潘店长劳务1750</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4555,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4639,7 +4671,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H21" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H23" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5117,32 +5149,86 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>181116</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="1">
+        <v>181117</v>
+      </c>
+      <c r="G22" s="7">
+        <v>915</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>262595.08999999997</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>181116</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="1">
+        <v>181118</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1850</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>260745.08999999997</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="F25" s="7">
-        <f>SUM(F3:F24)</f>
+      <c r="D27" s="1"/>
+      <c r="F27" s="7">
+        <f>SUM(F3:F26)</f>
         <v>7409.2000000000007</v>
       </c>
-      <c r="G25" s="7">
-        <f>SUM(G3:G24)</f>
-        <v>26889.599999999999</v>
-      </c>
-      <c r="H25" s="7">
-        <f>F25-G25</f>
-        <v>-19480.399999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
+      <c r="G27" s="7">
+        <f>SUM(G3:G26)</f>
+        <v>29654.6</v>
+      </c>
+      <c r="H27" s="7">
+        <f>F27-G27</f>
+        <v>-22245.399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F26"/>
-      <c r="H26" s="7">
-        <f>H25+H2</f>
-        <v>263510.08999999997</v>
+      <c r="F28"/>
+      <c r="H28" s="7">
+        <f>H27+H2</f>
+        <v>260745.09</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="227">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2065,6 +2065,14 @@
   </si>
   <si>
     <t>1，配钥匙100；2，小潘店长劳务1750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食费用和霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4587,7 +4595,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
@@ -4671,7 +4679,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H23" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H24" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5203,32 +5211,59 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="F27" s="7">
-        <f>SUM(F3:F26)</f>
-        <v>7409.2000000000007</v>
-      </c>
-      <c r="G27" s="7">
-        <f>SUM(G3:G26)</f>
-        <v>29654.6</v>
-      </c>
-      <c r="H27" s="7">
-        <f>F27-G27</f>
-        <v>-22245.399999999998</v>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>181118</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="1">
+        <v>181119</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1172.5</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>259572.58999999997</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="F28" s="7">
+        <f>SUM(F3:F27)</f>
+        <v>7409.2000000000007</v>
+      </c>
+      <c r="G28" s="7">
+        <f>SUM(G3:G27)</f>
+        <v>30827.1</v>
+      </c>
+      <c r="H28" s="7">
+        <f>F28-G28</f>
+        <v>-23417.899999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F28"/>
-      <c r="H28" s="7">
-        <f>H27+H2</f>
-        <v>260745.09</v>
+      <c r="F29"/>
+      <c r="H29" s="7">
+        <f>H28+H2</f>
+        <v>259572.59</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="236">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2073,6 +2073,42 @@
   </si>
   <si>
     <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具购买和霸王餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4595,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4679,7 +4715,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H24" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H27" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5238,32 +5274,115 @@
         <v>226</v>
       </c>
     </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>181123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5916.26</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>265488.84999999998</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>181123</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1483.35</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>266972.19999999995</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>181123</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="1">
+        <v>181120</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1884</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>265088.19999999995</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="F28" s="7">
-        <f>SUM(F3:F27)</f>
-        <v>7409.2000000000007</v>
-      </c>
-      <c r="G28" s="7">
-        <f>SUM(G3:G27)</f>
-        <v>30827.1</v>
-      </c>
-      <c r="H28" s="7">
-        <f>F28-G28</f>
-        <v>-23417.899999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="F32" s="7">
+        <f>SUM(F3:F31)</f>
+        <v>14808.810000000001</v>
+      </c>
+      <c r="G32" s="7">
+        <f>SUM(G3:G31)</f>
+        <v>32711.1</v>
+      </c>
+      <c r="H32" s="7">
+        <f>F32-G32</f>
+        <v>-17902.289999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29"/>
-      <c r="H29" s="7">
-        <f>H28+H2</f>
-        <v>259572.59</v>
+      <c r="F33"/>
+      <c r="H33" s="7">
+        <f>H32+H2</f>
+        <v>265088.2</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="239">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2109,6 +2109,18 @@
   </si>
   <si>
     <t>道具购买和霸王餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零散物品及劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,胶水27.6；2，婷婷劳务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4631,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4715,7 +4727,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H27" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H28" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5350,39 +5362,66 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="F32" s="7">
-        <f>SUM(F3:F31)</f>
-        <v>14808.810000000001</v>
-      </c>
-      <c r="G32" s="7">
-        <f>SUM(G3:G31)</f>
-        <v>32711.1</v>
-      </c>
-      <c r="H32" s="7">
-        <f>F32-G32</f>
-        <v>-17902.289999999997</v>
-      </c>
+      <c r="A28">
+        <v>181126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="1">
+        <v>181121</v>
+      </c>
+      <c r="G28" s="7">
+        <v>127.6</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>264960.59999999998</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" s="7">
+        <f>SUM(F3:F32)</f>
+        <v>14808.810000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <f>SUM(G3:G32)</f>
+        <v>32838.699999999997</v>
+      </c>
+      <c r="H33" s="7">
+        <f>F33-G33</f>
+        <v>-18029.889999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F33"/>
-      <c r="H33" s="7">
-        <f>H32+H2</f>
-        <v>265088.2</v>
+      <c r="F34"/>
+      <c r="H34" s="7">
+        <f>H33+H2</f>
+        <v>264960.59999999998</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="242">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2121,6 +2121,18 @@
   </si>
   <si>
     <t>1,胶水27.6；2，婷婷劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位工资支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，一人申报3500，单位支出4761.96，见工资表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4643,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4727,7 +4739,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H28" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H29" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5389,39 +5401,66 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="F33" s="7">
-        <f>SUM(F3:F32)</f>
-        <v>14808.810000000001</v>
-      </c>
-      <c r="G33" s="7">
-        <f>SUM(G3:G32)</f>
-        <v>32838.699999999997</v>
-      </c>
-      <c r="H33" s="7">
-        <f>F33-G33</f>
-        <v>-18029.889999999996</v>
-      </c>
+      <c r="A29">
+        <v>181128</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="1">
+        <v>181122</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4761.96</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>260198.63999999998</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="F34" s="7">
+        <f>SUM(F3:F33)</f>
+        <v>14808.810000000001</v>
+      </c>
+      <c r="G34" s="7">
+        <f>SUM(G3:G33)</f>
+        <v>37600.659999999996</v>
+      </c>
+      <c r="H34" s="7">
+        <f>F34-G34</f>
+        <v>-22791.849999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F34"/>
-      <c r="H34" s="7">
-        <f>H33+H2</f>
-        <v>264960.59999999998</v>
+      <c r="F35"/>
+      <c r="H35" s="7">
+        <f>H34+H2</f>
+        <v>260198.63999999998</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="247">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2133,6 +2133,26 @@
   </si>
   <si>
     <t>1，一人申报3500，单位支出4761.96，见工资表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主营 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月微信扫码支付，扣除手续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4655,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4739,7 +4759,7 @@
         <v>378</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H29" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H30" si="0">H2+F3-G3</f>
         <v>282612.49</v>
       </c>
     </row>
@@ -5428,39 +5448,66 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="F34" s="7">
-        <f>SUM(F3:F33)</f>
-        <v>14808.810000000001</v>
-      </c>
-      <c r="G34" s="7">
-        <f>SUM(G3:G33)</f>
-        <v>37600.659999999996</v>
-      </c>
-      <c r="H34" s="7">
-        <f>F34-G34</f>
-        <v>-22791.849999999995</v>
-      </c>
+      <c r="A30">
+        <v>181128</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5330.82</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>265529.45999999996</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="F35" s="7">
+        <f>SUM(F3:F34)</f>
+        <v>20139.63</v>
+      </c>
+      <c r="G35" s="7">
+        <f>SUM(G3:G34)</f>
+        <v>37600.659999999996</v>
+      </c>
+      <c r="H35" s="7">
+        <f>F35-G35</f>
+        <v>-17461.029999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F35"/>
-      <c r="H35" s="7">
-        <f>H34+H2</f>
-        <v>260198.63999999998</v>
+      <c r="F36"/>
+      <c r="H36" s="7">
+        <f>H35+H2</f>
+        <v>265529.46000000002</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="247">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3647,7 +3647,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A42" sqref="A42:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -4675,16 +4675,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="6" max="7" width="9.75" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
@@ -5508,6 +5509,85 @@
       <c r="H36" s="7">
         <f>H35+H2</f>
         <v>265529.46000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="7">
+        <f>F11+F12+F25+F26+F30</f>
+        <v>17789.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="7">
+        <f>F6</f>
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="7">
+        <f>G3+G8+G4+G13+G17+G19+G20</f>
+        <v>13221.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="7">
+        <f>G5+G7+G9+G10+G15+G16+G18+G21+G22+G24+G27+G28</f>
+        <v>10566.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="7">
+        <f>G14+G23+G29</f>
+        <v>13811.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="7">
+        <f>SUM(B40:B42)</f>
+        <v>20139.63</v>
+      </c>
+      <c r="C47" s="7">
+        <f>SUM(C43:C46)</f>
+        <v>37600.659999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5527,10 +5607,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -5577,7 +5660,10 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <f>'11月明细账'!H36</f>
+        <v>265529.46000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="252">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2153,6 +2153,26 @@
   </si>
   <si>
     <t>本月微信扫码支付，扣除手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买零食和兼职员工劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4677,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5604,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5665,9 +5685,82 @@
         <v>265529.46000000002</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>181206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3">
+        <v>181201</v>
+      </c>
+      <c r="G3">
+        <v>720.8</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+F3-G3</f>
+        <v>264808.66000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>181206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4">
+        <v>181202</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
+        <f>H3+F4-G4</f>
+        <v>264794.66000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="7">
+        <f>SUM(F3:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUM(G3:G8)</f>
+        <v>734.8</v>
+      </c>
+      <c r="H9" s="7">
+        <f>F9-G9</f>
+        <v>-734.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="7">
+        <f>H2+H9</f>
+        <v>264794.66000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="258">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2173,6 +2173,30 @@
   </si>
   <si>
     <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5624,14 +5648,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5730,31 +5755,79 @@
         <v>264794.66000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>181207</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5">
+        <v>2078.42</v>
+      </c>
+      <c r="H5" s="7">
+        <f>H4+F5-G5</f>
+        <v>266873.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>181207</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6">
+        <v>6160.32</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H5+F6-G6</f>
+        <v>273033.40000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="F9" s="7">
-        <f>SUM(F3:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f>SUM(G3:G8)</f>
+      <c r="D11" s="1"/>
+      <c r="F11" s="7">
+        <f>SUM(F3:F10)</f>
+        <v>8238.74</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(G3:G10)</f>
         <v>734.8</v>
       </c>
-      <c r="H9" s="7">
-        <f>F9-G9</f>
-        <v>-734.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="H11" s="7">
+        <f>F11-G11</f>
+        <v>7503.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="7">
-        <f>H2+H9</f>
-        <v>264794.66000000003</v>
+      <c r="H12" s="7">
+        <f>H2+H11</f>
+        <v>273033.40000000002</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="265">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2197,6 +2197,34 @@
   </si>
   <si>
     <t>入181202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机墨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职店长劳务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王餐和门店维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5648,10 +5676,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5803,31 +5831,103 @@
         <v>273033.40000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>181210</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="1">
+        <v>181203</v>
+      </c>
+      <c r="G7">
+        <v>185</v>
+      </c>
+      <c r="H7" s="7">
+        <f>H6+F7-G7</f>
+        <v>272848.40000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>181210</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="1">
+        <v>181204</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8" s="7">
+        <f>H7+F8-G8</f>
+        <v>272148.40000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>181210</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="1">
+        <v>181205</v>
+      </c>
+      <c r="G9">
+        <v>312.8</v>
+      </c>
+      <c r="H9" s="7">
+        <f>H8+F9-G9</f>
+        <v>271835.60000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="7">
-        <f>SUM(F3:F10)</f>
+      <c r="D14" s="1"/>
+      <c r="F14" s="7">
+        <f>SUM(F3:F13)</f>
         <v>8238.74</v>
       </c>
-      <c r="G11" s="7">
-        <f>SUM(G3:G10)</f>
-        <v>734.8</v>
-      </c>
-      <c r="H11" s="7">
-        <f>F11-G11</f>
-        <v>7503.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="G14" s="7">
+        <f>SUM(G3:G13)</f>
+        <v>1932.6</v>
+      </c>
+      <c r="H14" s="7">
+        <f>F14-G14</f>
+        <v>6306.1399999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="7">
-        <f>H2+H11</f>
-        <v>273033.40000000002</v>
+      <c r="H15" s="7">
+        <f>H2+H14</f>
+        <v>271835.60000000003</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2225,6 +2225,116 @@
   </si>
   <si>
     <t>霸王餐和门店维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长劳务和门店维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，店长劳务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，锁具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，地垫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>275.1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5679,13 +5789,14 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5758,7 +5869,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f>H2+F3-G3</f>
+        <f t="shared" ref="H3:H10" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -5779,7 +5890,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="7">
-        <f>H3+F4-G4</f>
+        <f t="shared" si="0"/>
         <v>264794.66000000003</v>
       </c>
     </row>
@@ -5803,7 +5914,7 @@
         <v>2078.42</v>
       </c>
       <c r="H5" s="7">
-        <f>H4+F5-G5</f>
+        <f t="shared" si="0"/>
         <v>266873.08</v>
       </c>
     </row>
@@ -5827,7 +5938,7 @@
         <v>6160.32</v>
       </c>
       <c r="H6" s="7">
-        <f>H5+F6-G6</f>
+        <f t="shared" si="0"/>
         <v>273033.40000000002</v>
       </c>
     </row>
@@ -5851,7 +5962,7 @@
         <v>185</v>
       </c>
       <c r="H7" s="7">
-        <f>H6+F7-G7</f>
+        <f t="shared" si="0"/>
         <v>272848.40000000002</v>
       </c>
     </row>
@@ -5875,7 +5986,7 @@
         <v>700</v>
       </c>
       <c r="H8" s="7">
-        <f>H7+F8-G8</f>
+        <f t="shared" si="0"/>
         <v>272148.40000000002</v>
       </c>
     </row>
@@ -5899,8 +6010,35 @@
         <v>312.8</v>
       </c>
       <c r="H9" s="7">
-        <f>H8+F9-G9</f>
+        <f t="shared" si="0"/>
         <v>271835.60000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>181220</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="1">
+        <v>181206</v>
+      </c>
+      <c r="G10">
+        <v>393.7</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>271441.90000000002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5914,11 +6052,11 @@
       </c>
       <c r="G14" s="7">
         <f>SUM(G3:G13)</f>
-        <v>1932.6</v>
+        <v>2326.2999999999997</v>
       </c>
       <c r="H14" s="7">
         <f>F14-G14</f>
-        <v>6306.1399999999994</v>
+        <v>5912.4400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5927,7 +6065,7 @@
       </c>
       <c r="H15" s="7">
         <f>H2+H14</f>
-        <v>271835.60000000003</v>
+        <v>271441.90000000002</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="272">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2335,6 +2335,26 @@
       </rPr>
       <t>275.1</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购和预订收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5786,15 +5806,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
@@ -5869,7 +5891,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H10" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H12" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -6041,31 +6063,86 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>181221</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11">
+        <v>6450.48</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>277892.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>181221</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12">
+        <v>225.61</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>278117.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="F14" s="7">
-        <f>SUM(F3:F13)</f>
-        <v>8238.74</v>
-      </c>
-      <c r="G14" s="7">
-        <f>SUM(G3:G13)</f>
+      <c r="D17" s="1"/>
+      <c r="F17" s="7">
+        <f>SUM(F3:F16)</f>
+        <v>14914.83</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUM(G3:G16)</f>
         <v>2326.2999999999997</v>
       </c>
-      <c r="H14" s="7">
-        <f>F14-G14</f>
-        <v>5912.4400000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="H17" s="7">
+        <f>F17-G17</f>
+        <v>12588.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="7">
-        <f>H2+H14</f>
-        <v>271441.90000000002</v>
+      <c r="H18" s="7">
+        <f>H2+H17</f>
+        <v>278117.99000000005</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="274">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2355,6 +2355,14 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸杯和卫生纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5806,10 +5814,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5891,7 +5899,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H12" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H14" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -6112,37 +6120,85 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="A13">
+        <v>181223</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="1">
+        <v>181207</v>
+      </c>
+      <c r="G13">
+        <v>560</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>277557.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>181223</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="1">
+        <v>181208</v>
+      </c>
+      <c r="G14">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>277425.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="F17" s="7">
-        <f>SUM(F3:F16)</f>
+      <c r="D19" s="1"/>
+      <c r="F19" s="7">
+        <f>SUM(F3:F18)</f>
         <v>14914.83</v>
       </c>
-      <c r="G17" s="7">
-        <f>SUM(G3:G16)</f>
-        <v>2326.2999999999997</v>
-      </c>
-      <c r="H17" s="7">
-        <f>F17-G17</f>
-        <v>12588.53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
+      <c r="G19" s="7">
+        <f>SUM(G3:G18)</f>
+        <v>3019.1</v>
+      </c>
+      <c r="H19" s="7">
+        <f>F19-G19</f>
+        <v>11895.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H18" s="7">
-        <f>H2+H17</f>
-        <v>278117.99000000005</v>
+      <c r="H20" s="7">
+        <f>H2+H19</f>
+        <v>277425.19</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="280">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2363,6 +2363,30 @@
   </si>
   <si>
     <t>纸杯和卫生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工餐和紫藤剧本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买扑克牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4887,7 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -5814,10 +5838,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5899,7 +5923,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H14" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -5913,6 +5937,9 @@
       <c r="C4" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E4">
         <v>181202</v>
       </c>
@@ -6168,37 +6195,81 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="A15">
+        <v>181231</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="1">
+        <v>181209</v>
+      </c>
+      <c r="G15">
+        <v>783.1</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>276642.09000000003</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>181231</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="1">
+        <v>181210</v>
+      </c>
+      <c r="G16">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>276374.49000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="F19" s="7">
-        <f>SUM(F3:F18)</f>
+      <c r="D22" s="1"/>
+      <c r="F22" s="7">
+        <f>SUM(F3:F21)</f>
         <v>14914.83</v>
       </c>
-      <c r="G19" s="7">
-        <f>SUM(G3:G18)</f>
-        <v>3019.1</v>
-      </c>
-      <c r="H19" s="7">
-        <f>F19-G19</f>
-        <v>11895.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="G22" s="7">
+        <f>SUM(G3:G21)</f>
+        <v>4069.7999999999997</v>
+      </c>
+      <c r="H22" s="7">
+        <f>F22-G22</f>
+        <v>10845.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="7">
-        <f>H2+H19</f>
-        <v>277425.19</v>
+      <c r="H23" s="7">
+        <f>H2+H22</f>
+        <v>276374.49000000005</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="284">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2132,10 +2132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，一人申报3500，单位支出4761.96，见工资表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2388,6 +2384,77 @@
   <si>
     <t>买扑克牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月员工工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，一人申报3500，单位支出4761.96，见工资表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，一人申报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，单位支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4761.96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，见工资表</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4911,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5679,7 +5746,7 @@
         <v>260198.63999999998</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5687,16 +5754,16 @@
         <v>181128</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="F30" s="7">
         <v>5330.82</v>
@@ -5706,7 +5773,7 @@
         <v>265529.45999999996</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5840,8 +5907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5908,13 +5975,13 @@
         <v>181206</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E3">
         <v>181201</v>
@@ -5923,7 +5990,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H16" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -5932,13 +5999,13 @@
         <v>181206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4">
         <v>181202</v>
@@ -5956,16 +6023,16 @@
         <v>181207</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F5">
         <v>2078.42</v>
@@ -5980,16 +6047,16 @@
         <v>181207</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F6">
         <v>6160.32</v>
@@ -6004,13 +6071,13 @@
         <v>181210</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E7" s="1">
         <v>181203</v>
@@ -6028,13 +6095,13 @@
         <v>181210</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E8" s="1">
         <v>181204</v>
@@ -6052,13 +6119,13 @@
         <v>181210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E9" s="1">
         <v>181205</v>
@@ -6082,7 +6149,7 @@
         <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1">
         <v>181206</v>
@@ -6095,7 +6162,7 @@
         <v>271441.90000000002</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6109,10 +6176,10 @@
         <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="F11">
         <v>6450.48</v>
@@ -6130,13 +6197,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="F12">
         <v>225.61</v>
@@ -6157,7 +6224,7 @@
         <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E13" s="1">
         <v>181207</v>
@@ -6178,10 +6245,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E14" s="1">
         <v>181208</v>
@@ -6199,13 +6266,13 @@
         <v>181231</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="1">
         <v>181209</v>
@@ -6218,7 +6285,7 @@
         <v>276642.09000000003</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6229,10 +6296,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E16" s="1">
         <v>181210</v>
@@ -6245,7 +6312,34 @@
         <v>276374.49000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>181231</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="1">
+        <v>181211</v>
+      </c>
+      <c r="G17">
+        <v>4761.96</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>271612.53000000003</v>
+      </c>
+      <c r="I17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -6256,20 +6350,20 @@
       </c>
       <c r="G22" s="7">
         <f>SUM(G3:G21)</f>
-        <v>4069.7999999999997</v>
+        <v>8831.76</v>
       </c>
       <c r="H22" s="7">
         <f>F22-G22</f>
-        <v>10845.03</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>6083.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <f>H2+H22</f>
-        <v>276374.49000000005</v>
+        <v>271612.53000000003</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="286">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2455,6 +2455,14 @@
       </rPr>
       <t>，见工资表</t>
     </r>
+  </si>
+  <si>
+    <t>12月微信支付收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入181204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5908,7 +5916,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5990,7 +5998,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H17" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -6339,6 +6347,30 @@
         <v>283</v>
       </c>
     </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>181231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18">
+        <v>17121.59</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>288734.12000000005</v>
+      </c>
+    </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>24</v>
@@ -6346,7 +6378,7 @@
       <c r="D22" s="1"/>
       <c r="F22" s="7">
         <f>SUM(F3:F21)</f>
-        <v>14914.83</v>
+        <v>32036.42</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(G3:G21)</f>
@@ -6354,7 +6386,7 @@
       </c>
       <c r="H22" s="7">
         <f>F22-G22</f>
-        <v>6083.07</v>
+        <v>23204.659999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6363,7 +6395,7 @@
       </c>
       <c r="H23" s="7">
         <f>H2+H22</f>
-        <v>271612.53000000003</v>
+        <v>288734.12</v>
       </c>
     </row>
   </sheetData>

--- a/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
+++ b/21D项目/03财务资料/01账本/推理馆明细账2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="288">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2462,6 +2462,14 @@
   </si>
   <si>
     <t>入181204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼职店长劳务及奖金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4986,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -5913,14 +5921,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -5998,7 +6008,7 @@
         <v>720.8</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H18" si="0">H2+F3-G3</f>
+        <f t="shared" ref="H3:H19" si="0">H2+F3-G3</f>
         <v>264808.66000000003</v>
       </c>
     </row>
@@ -6369,6 +6379,30 @@
       <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>288734.12000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>181231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="1">
+        <v>181212</v>
+      </c>
+      <c r="G19">
+        <v>1500</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>287234.12000000005</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6382,11 +6416,11 @@
       </c>
       <c r="G22" s="7">
         <f>SUM(G3:G21)</f>
-        <v>8831.76</v>
+        <v>10331.76</v>
       </c>
       <c r="H22" s="7">
         <f>F22-G22</f>
-        <v>23204.659999999996</v>
+        <v>21704.659999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6395,7 +6429,85 @@
       </c>
       <c r="H23" s="7">
         <f>H2+H22</f>
-        <v>288734.12</v>
+        <v>287234.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="7">
+        <f>F5+F6+F11+F18</f>
+        <v>31810.809999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="7">
+        <f>F12</f>
+        <v>225.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="7">
+        <f>G3+G4+G7+G9+G10+G14+G15+G16</f>
+        <v>2809.7999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="7">
+        <f>G8+G13+G17+G19</f>
+        <v>7521.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="7">
+        <f>SUM(B27:B29)</f>
+        <v>32036.42</v>
+      </c>
+      <c r="C34" s="7">
+        <f>SUM(C30:C33)</f>
+        <v>10331.76</v>
       </c>
     </row>
   </sheetData>
